--- a/Historic_events.xlsx
+++ b/Historic_events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,10 +250,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,14 +564,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="6" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="6" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,23 +591,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -717,7 +717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -752,7 +752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -772,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -792,7 +792,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -812,7 +812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -832,7 +832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -852,7 +852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -860,7 +860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -868,7 +868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -876,7 +876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -884,7 +884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -892,7 +892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -900,7 +900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -908,7 +908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -916,7 +916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -924,7 +924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1779</v>
       </c>
@@ -932,7 +932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1810</v>
       </c>
@@ -940,7 +940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1856</v>
       </c>
@@ -960,62 +960,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-386</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>-186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>796</v>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
